--- a/动力学参数估计.xlsx
+++ b/动力学参数估计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13080" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>q1</t>
   </si>
@@ -172,6 +173,75 @@
   </si>
   <si>
     <t>d3</t>
+  </si>
+  <si>
+    <t>CoMz</t>
+  </si>
+  <si>
+    <t>CoMtheta</t>
+  </si>
+  <si>
+    <t>HipY</t>
+  </si>
+  <si>
+    <t>KneeY</t>
+  </si>
+  <si>
+    <t>AnkleY</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>Jac</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 -1.0</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 -0.8</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 -0.6</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 -0.5</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 0.0</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 0.1</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 0.2</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 0.3</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 0.4</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.6 0.5</t>
+  </si>
+  <si>
+    <t>-0.1 0.1 0.6 -0.5</t>
+  </si>
+  <si>
+    <t>-0.1 0.1 0.6 0.0</t>
+  </si>
+  <si>
+    <t>-0.2 0.2 0.6 0.0</t>
+  </si>
+  <si>
+    <t>-0.3 0.3 0.6 0.0</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.8 0.0</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.4 0.0</t>
   </si>
 </sst>
 </file>
@@ -179,11 +249,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -195,29 +265,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +287,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,85 +401,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +417,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +459,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,31 +567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,121 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,15 +608,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,26 +635,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +655,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,11 +687,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,148 +713,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,15 +1274,15 @@
         <v>-1.38579</v>
       </c>
       <c r="D2">
-        <f>-A2</f>
+        <f t="shared" ref="D2:D9" si="0">-A2</f>
         <v>1.34843</v>
       </c>
       <c r="E2">
-        <f>-A2-B2</f>
+        <f t="shared" ref="E2:E25" si="1">-A2-B2</f>
         <v>-1.3435</v>
       </c>
       <c r="F2">
-        <f>-A2-B2-C2</f>
+        <f t="shared" ref="F2:F9" si="2">-A2-B2-C2</f>
         <v>0.0422899999999999</v>
       </c>
       <c r="G2">
@@ -1236,15 +1306,15 @@
         <v>-1.57167</v>
       </c>
       <c r="D3">
-        <f>-A3</f>
+        <f t="shared" si="0"/>
         <v>1.1587</v>
       </c>
       <c r="E3">
-        <f>-A3-B3</f>
+        <f t="shared" si="1"/>
         <v>-1.53909</v>
       </c>
       <c r="F3">
-        <f>-A3-B3-C3</f>
+        <f t="shared" si="2"/>
         <v>0.0325800000000001</v>
       </c>
       <c r="G3">
@@ -1268,15 +1338,15 @@
         <v>-1.73893</v>
       </c>
       <c r="D4">
-        <f>-A4</f>
+        <f t="shared" si="0"/>
         <v>0.980724</v>
       </c>
       <c r="E4">
-        <f>-A4-B4</f>
+        <f t="shared" si="1"/>
         <v>-1.716856</v>
       </c>
       <c r="F4">
-        <f>-A4-B4-C4</f>
+        <f t="shared" si="2"/>
         <v>0.0220740000000001</v>
       </c>
       <c r="G4">
@@ -1300,15 +1370,15 @@
         <v>-1.24542</v>
       </c>
       <c r="D5">
-        <f>-A5</f>
+        <f t="shared" si="0"/>
         <v>1.24163</v>
       </c>
       <c r="E5">
-        <f>-A5-B5</f>
+        <f t="shared" si="1"/>
         <v>-1.21172</v>
       </c>
       <c r="F5">
-        <f>-A5-B5-C5</f>
+        <f t="shared" si="2"/>
         <v>0.0337000000000001</v>
       </c>
       <c r="G5">
@@ -1332,15 +1402,15 @@
         <v>-1.33784</v>
       </c>
       <c r="D6">
-        <f>-A6</f>
+        <f t="shared" si="0"/>
         <v>1.14533</v>
       </c>
       <c r="E6">
-        <f>-A6-B6</f>
+        <f t="shared" si="1"/>
         <v>-1.31091</v>
       </c>
       <c r="F6">
-        <f>-A6-B6-C6</f>
+        <f t="shared" si="2"/>
         <v>0.0269299999999997</v>
       </c>
       <c r="G6">
@@ -1364,15 +1434,15 @@
         <v>-1.4257</v>
       </c>
       <c r="D7">
-        <f>-A7</f>
+        <f t="shared" si="0"/>
         <v>1.04861</v>
       </c>
       <c r="E7">
-        <f>-A7-B7</f>
+        <f t="shared" si="1"/>
         <v>-1.40504</v>
       </c>
       <c r="F7">
-        <f>-A7-B7-C7</f>
+        <f t="shared" si="2"/>
         <v>0.0206599999999999</v>
       </c>
       <c r="G7">
@@ -1396,15 +1466,15 @@
         <v>-1.50768</v>
       </c>
       <c r="D8">
-        <f>-A8</f>
+        <f t="shared" si="0"/>
         <v>0.954186</v>
       </c>
       <c r="E8">
-        <f>-A8-B8</f>
+        <f t="shared" si="1"/>
         <v>-1.493684</v>
       </c>
       <c r="F8">
-        <f>-A8-B8-C8</f>
+        <f t="shared" si="2"/>
         <v>0.0139959999999999</v>
       </c>
       <c r="G8">
@@ -1428,15 +1498,15 @@
         <v>-1.58195</v>
       </c>
       <c r="D9">
-        <f>-A9</f>
+        <f t="shared" si="0"/>
         <v>0.862218</v>
       </c>
       <c r="E9">
-        <f>-A9-B9</f>
+        <f t="shared" si="1"/>
         <v>-1.574622</v>
       </c>
       <c r="F9">
-        <f>-A9-B9-C9</f>
+        <f t="shared" si="2"/>
         <v>0.00732799999999978</v>
       </c>
       <c r="G9">
@@ -1460,15 +1530,15 @@
         <v>-0.729558</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D16" si="0">-A10</f>
+        <f t="shared" ref="D10:D23" si="3">-A10</f>
         <v>0.874548</v>
       </c>
       <c r="E10">
-        <f>-A10-B10</f>
+        <f t="shared" si="1"/>
         <v>-0.716282</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F16" si="1">-A10-B10-C10</f>
+        <f t="shared" ref="F10:F23" si="4">-A10-B10-C10</f>
         <v>0.0132760000000001</v>
       </c>
       <c r="G10">
@@ -1492,15 +1562,15 @@
         <v>-0.768863</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.833477</v>
       </c>
       <c r="E11">
-        <f>-A11-B11</f>
+        <f t="shared" si="1"/>
         <v>-0.760883</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.00797999999999999</v>
       </c>
       <c r="G11">
@@ -1524,15 +1594,15 @@
         <v>-0.807011</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.792026</v>
       </c>
       <c r="E12">
-        <f>-A12-B12</f>
+        <f t="shared" si="1"/>
         <v>-0.801834</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.00517699999999999</v>
       </c>
       <c r="G12">
@@ -1556,15 +1626,15 @@
         <v>-0.843253</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.748293</v>
       </c>
       <c r="E13">
-        <f>-A13-B13</f>
+        <f t="shared" si="1"/>
         <v>-0.842017</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.00123600000000013</v>
       </c>
       <c r="G13">
@@ -1588,15 +1658,15 @@
         <v>-0.877506</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.703824</v>
       </c>
       <c r="E14">
-        <f>-A14-B14</f>
+        <f t="shared" si="1"/>
         <v>-0.879636</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.00213000000000008</v>
       </c>
       <c r="G14">
@@ -1620,15 +1690,15 @@
         <v>-0.90979</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.657047</v>
       </c>
       <c r="E15">
-        <f>-A15-B15</f>
+        <f t="shared" si="1"/>
         <v>-0.916923</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.00713300000000006</v>
       </c>
       <c r="G15">
@@ -1652,15 +1722,15 @@
         <v>-0.939995</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.60969</v>
       </c>
       <c r="E16">
-        <f>-A16-B16</f>
+        <f t="shared" si="1"/>
         <v>-0.95098</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.010985</v>
       </c>
       <c r="G16">
@@ -1684,15 +1754,15 @@
         <v>-0.898323</v>
       </c>
       <c r="D17">
-        <f>-A17</f>
+        <f t="shared" si="3"/>
         <v>1.04052</v>
       </c>
       <c r="E17">
-        <f>-A17-B17</f>
+        <f t="shared" si="1"/>
         <v>-0.87758</v>
       </c>
       <c r="F17">
-        <f>-A17-B17-C17</f>
+        <f t="shared" si="4"/>
         <v>0.020743</v>
       </c>
       <c r="G17">
@@ -1716,15 +1786,15 @@
         <v>-0.946558</v>
       </c>
       <c r="D18">
-        <f>-A18</f>
+        <f t="shared" si="3"/>
         <v>0.991589</v>
       </c>
       <c r="E18">
-        <f>-A18-B18</f>
+        <f t="shared" si="1"/>
         <v>-0.930621</v>
       </c>
       <c r="F18">
-        <f>-A18-B18-C18</f>
+        <f t="shared" si="4"/>
         <v>0.0159370000000001</v>
       </c>
       <c r="G18">
@@ -1748,15 +1818,15 @@
         <v>-0.992983</v>
       </c>
       <c r="D19">
-        <f>-A19</f>
+        <f t="shared" si="3"/>
         <v>0.941357</v>
       </c>
       <c r="E19">
-        <f>-A19-B19</f>
+        <f t="shared" si="1"/>
         <v>-0.981613</v>
       </c>
       <c r="F19">
-        <f>-A19-B19-C19</f>
+        <f t="shared" si="4"/>
         <v>0.0113699999999999</v>
       </c>
       <c r="G19">
@@ -1780,15 +1850,15 @@
         <v>-1.03789</v>
       </c>
       <c r="D20">
-        <f>-A20</f>
+        <f t="shared" si="3"/>
         <v>0.890011</v>
       </c>
       <c r="E20">
-        <f>-A20-B20</f>
+        <f t="shared" si="1"/>
         <v>-1.029999</v>
       </c>
       <c r="F20">
-        <f>-A20-B20-C20</f>
+        <f t="shared" si="4"/>
         <v>0.00789099999999987</v>
       </c>
       <c r="G20">
@@ -1812,15 +1882,15 @@
         <v>-1.08032</v>
       </c>
       <c r="D21">
-        <f>-A21</f>
+        <f t="shared" si="3"/>
         <v>0.836592</v>
       </c>
       <c r="E21">
-        <f>-A21-B21</f>
+        <f t="shared" si="1"/>
         <v>-1.077068</v>
       </c>
       <c r="F21">
-        <f>-A21-B21-C21</f>
+        <f t="shared" si="4"/>
         <v>0.00325200000000003</v>
       </c>
       <c r="G21">
@@ -1844,15 +1914,15 @@
         <v>-1.12043</v>
       </c>
       <c r="D22">
-        <f>-A22</f>
+        <f t="shared" si="3"/>
         <v>0.782781</v>
       </c>
       <c r="E22">
-        <f>-A22-B22</f>
+        <f t="shared" si="1"/>
         <v>-1.121319</v>
       </c>
       <c r="F22">
-        <f>-A22-B22-C22</f>
+        <f t="shared" si="4"/>
         <v>-0.000888999999999918</v>
       </c>
       <c r="G22">
@@ -1876,15 +1946,15 @@
         <v>-1.15786</v>
       </c>
       <c r="D23">
-        <f>-A23</f>
+        <f t="shared" si="3"/>
         <v>0.729817</v>
       </c>
       <c r="E23">
-        <f>-A23-B23</f>
+        <f t="shared" si="1"/>
         <v>-1.161923</v>
       </c>
       <c r="F23">
-        <f>-A23-B23-C23</f>
+        <f t="shared" si="4"/>
         <v>-0.00406299999999993</v>
       </c>
       <c r="G23">
@@ -1908,15 +1978,15 @@
         <v>0.964905</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D40" si="2">-A24</f>
+        <f t="shared" ref="D24:D40" si="5">-A24</f>
         <v>0.951665</v>
       </c>
       <c r="E24">
-        <f>-A24-B24</f>
+        <f t="shared" si="1"/>
         <v>-0.326475</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F40" si="3">-A24-B24-C24</f>
+        <f t="shared" ref="F24:F40" si="6">-A24-B24-C24</f>
         <v>-1.29138</v>
       </c>
       <c r="G24">
@@ -1940,15 +2010,15 @@
         <v>0.820481</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.00518</v>
       </c>
       <c r="E25">
-        <f>-A25-B25</f>
+        <f t="shared" si="1"/>
         <v>-0.37041</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.190891</v>
       </c>
       <c r="G25">
@@ -1972,15 +2042,15 @@
         <v>0.675956</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0503</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E24:E40" si="4">-A26-B26</f>
+        <f t="shared" ref="E24:E40" si="7">-A26-B26</f>
         <v>-0.41516</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.091116</v>
       </c>
       <c r="G26">
@@ -2004,15 +2074,15 @@
         <v>0.531166</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0892</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.459</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.990166</v>
       </c>
       <c r="G27">
@@ -2036,15 +2106,15 @@
         <v>0.484546</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.996784</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.487116</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.971662</v>
       </c>
       <c r="G28">
@@ -2068,15 +2138,15 @@
         <v>0.344467</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.03023</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.52811</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.872577</v>
       </c>
       <c r="G29">
@@ -2100,15 +2170,15 @@
         <v>0.203143</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.05672</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.56923</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.772373</v>
       </c>
       <c r="G30">
@@ -2132,15 +2202,15 @@
         <v>0.0605144</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.07505</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.61202</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.6725344</v>
       </c>
       <c r="G31">
@@ -2164,15 +2234,15 @@
         <v>-0.0832613</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.08601</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.65525</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.5719887</v>
       </c>
       <c r="G32">
@@ -2196,15 +2266,15 @@
         <v>-0.228107</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.08828</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.70076</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.472653</v>
       </c>
       <c r="G33">
@@ -2228,15 +2298,15 @@
         <v>-0.373646</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.08247</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.74742</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.373774</v>
       </c>
       <c r="G34">
@@ -2260,15 +2330,15 @@
         <v>-0.519232</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.06923</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.7949</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.275668</v>
       </c>
       <c r="G35">
@@ -2292,15 +2362,15 @@
         <v>-0.664064</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.04777</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.84288</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.178816</v>
       </c>
       <c r="G36">
@@ -2324,15 +2394,15 @@
         <v>-0.807133</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.02151</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.88851</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.0813770000000001</v>
       </c>
       <c r="G37">
@@ -2356,15 +2426,15 @@
         <v>-1.0816</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.956393</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.969857</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.111743</v>
       </c>
       <c r="G38">
@@ -2388,15 +2458,15 @@
         <v>-1.21038</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.921486</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.001804</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.208576</v>
       </c>
       <c r="G39">
@@ -2420,15 +2490,15 @@
         <v>-1.27228</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.904072</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.014968</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.257312</v>
       </c>
       <c r="G40">
@@ -2452,15 +2522,15 @@
         <v>-0.506993</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:D50" si="5">-A41</f>
+        <f t="shared" ref="D41:D50" si="8">-A41</f>
         <v>0.64879</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:E52" si="6">-A41-B41</f>
+        <f t="shared" ref="E41:E52" si="9">-A41-B41</f>
         <v>-0.49829</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:F50" si="7">-A41-B41-C41</f>
+        <f t="shared" ref="F41:F50" si="10">-A41-B41-C41</f>
         <v>0.00870299999999991</v>
       </c>
       <c r="G41">
@@ -2484,15 +2554,15 @@
         <v>-0.540729</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.613267</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.536673</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.00405600000000006</v>
       </c>
       <c r="G42">
@@ -2516,15 +2586,15 @@
         <v>-0.572495</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.578014</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.570956</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.00153899999999996</v>
       </c>
       <c r="G43">
@@ -2548,15 +2618,15 @@
         <v>-0.602758</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.538853</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.605527</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-0.00276899999999991</v>
       </c>
       <c r="G44">
@@ -2580,15 +2650,15 @@
         <v>-0.630832</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.498614</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.637466</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-0.00663400000000003</v>
       </c>
       <c r="G45">
@@ -2612,15 +2682,15 @@
         <v>-0.65683</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.456741</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.667279</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-0.0104489999999999</v>
       </c>
       <c r="G46">
@@ -2644,15 +2714,15 @@
         <v>0.487145</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.521352</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.1979</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-0.685045</v>
       </c>
       <c r="G47">
@@ -2676,15 +2746,15 @@
         <v>0.317761</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:D54" si="8">-A48</f>
+        <f t="shared" ref="D48:D55" si="11">-A48</f>
         <v>0.571876</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E54" si="9">-A48-B48</f>
+        <f t="shared" ref="E48:E55" si="12">-A48-B48</f>
         <v>-0.267977</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48:F54" si="10">-A48-B48-C48</f>
+        <f t="shared" ref="F48:F55" si="13">-A48-B48-C48</f>
         <v>-0.585738</v>
       </c>
       <c r="G48">
@@ -2708,15 +2778,15 @@
         <v>0.158108</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.605359</v>
       </c>
       <c r="E49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.328855</v>
       </c>
       <c r="F49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.486963</v>
       </c>
       <c r="G49">
@@ -2740,15 +2810,15 @@
         <v>0.00604204</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.626239</v>
       </c>
       <c r="E50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.382531</v>
       </c>
       <c r="F50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.38857304</v>
       </c>
       <c r="G50">
@@ -2772,15 +2842,15 @@
         <v>-0.13983</v>
       </c>
       <c r="D51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.636357</v>
       </c>
       <c r="E51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.430013</v>
       </c>
       <c r="F51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.290183</v>
       </c>
       <c r="G51">
@@ -2804,15 +2874,15 @@
         <v>-0.279478</v>
       </c>
       <c r="D52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.637727</v>
       </c>
       <c r="E52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.470703</v>
       </c>
       <c r="F52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.191225</v>
       </c>
       <c r="G52">
@@ -2836,15 +2906,15 @@
         <v>-0.41325</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.629593</v>
       </c>
       <c r="E53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.506817</v>
       </c>
       <c r="F53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.093567</v>
       </c>
       <c r="G53">
@@ -2868,15 +2938,15 @@
         <v>-0.660739</v>
       </c>
       <c r="D54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.59212</v>
       </c>
       <c r="E54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.55785</v>
       </c>
       <c r="F54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.102889</v>
       </c>
       <c r="G54">
@@ -2900,15 +2970,15 @@
         <v>-0.773382</v>
       </c>
       <c r="D55">
-        <f>-A55</f>
+        <f t="shared" si="11"/>
         <v>0.562759</v>
       </c>
       <c r="E55">
-        <f>-A55-B55</f>
+        <f t="shared" si="12"/>
         <v>-0.573021</v>
       </c>
       <c r="F55">
-        <f>-A55-B55-C55</f>
+        <f t="shared" si="13"/>
         <v>0.200361</v>
       </c>
       <c r="G55">
@@ -2933,7 +3003,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3069,16 +3139,435 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2">
+        <v>0.645</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>-1.11304</v>
+      </c>
+      <c r="E2">
+        <v>1.98874</v>
+      </c>
+      <c r="F2">
+        <v>-0.975698</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>0.586773</v>
+      </c>
+      <c r="C3">
+        <v>0.0774763</v>
+      </c>
+      <c r="D3">
+        <v>-1.19613</v>
+      </c>
+      <c r="E3">
+        <v>2.18797</v>
+      </c>
+      <c r="F3">
+        <v>-1.06933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>0.545041</v>
+      </c>
+      <c r="C4">
+        <v>0.0581434</v>
+      </c>
+      <c r="D4">
+        <v>-1.25852</v>
+      </c>
+      <c r="E4">
+        <v>2.32358</v>
+      </c>
+      <c r="F4">
+        <v>-1.12355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>0.649612</v>
+      </c>
+      <c r="C5">
+        <v>0.102949</v>
+      </c>
+      <c r="D5">
+        <v>-1.0769</v>
+      </c>
+      <c r="E5">
+        <v>1.97743</v>
+      </c>
+      <c r="F5">
+        <v>-1.00344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>0.645401</v>
+      </c>
+      <c r="C6">
+        <v>0.099368</v>
+      </c>
+      <c r="D6">
+        <v>-1.11306</v>
+      </c>
+      <c r="E6">
+        <v>1.98893</v>
+      </c>
+      <c r="F6">
+        <v>-0.975822</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>0.64544</v>
+      </c>
+      <c r="C7">
+        <v>0.0996359</v>
+      </c>
+      <c r="D7">
+        <v>-1.11287</v>
+      </c>
+      <c r="E7">
+        <v>1.98894</v>
+      </c>
+      <c r="F7">
+        <v>-0.975479</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.86666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.0666666666667"/>
+    <col min="4" max="4" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1">
+        <v>0.594518</v>
+      </c>
+      <c r="C1">
+        <v>1.53575</v>
+      </c>
+      <c r="D1">
+        <v>-1.13027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>0.28992</v>
+      </c>
+      <c r="C2">
+        <v>1.68921</v>
+      </c>
+      <c r="D2">
+        <v>-1.17913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>-0.0217046</v>
+      </c>
+      <c r="C3">
+        <v>1.8162</v>
+      </c>
+      <c r="D3">
+        <v>-1.19449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>-0.179889</v>
+      </c>
+      <c r="C4">
+        <v>1.86851</v>
+      </c>
+      <c r="D4">
+        <v>-1.18862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>-0.965722</v>
+      </c>
+      <c r="C5">
+        <v>1.99396</v>
+      </c>
+      <c r="D5">
+        <v>-1.02824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>-1.11304</v>
+      </c>
+      <c r="C6">
+        <v>1.98874</v>
+      </c>
+      <c r="D6">
+        <v>-0.975698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>-1.2537</v>
+      </c>
+      <c r="C7">
+        <v>1.97319</v>
+      </c>
+      <c r="D7">
+        <v>-0.919484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8">
+        <v>-1.38654</v>
+      </c>
+      <c r="C8">
+        <v>1.94762</v>
+      </c>
+      <c r="D8">
+        <v>-0.861086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>-1.5107</v>
+      </c>
+      <c r="C9">
+        <v>1.91253</v>
+      </c>
+      <c r="D9">
+        <v>-0.801828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>-1.62572</v>
+      </c>
+      <c r="C10">
+        <v>1.86851</v>
+      </c>
+      <c r="D10">
+        <v>-0.742785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>0.0909978</v>
+      </c>
+      <c r="C11">
+        <v>1.74763</v>
+      </c>
+      <c r="D11">
+        <v>-1.33863</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>-0.431398</v>
+      </c>
+      <c r="C12">
+        <v>1.9073</v>
+      </c>
+      <c r="D12">
+        <v>-0.975906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>-0.69881</v>
+      </c>
+      <c r="C13">
+        <v>1.95082</v>
+      </c>
+      <c r="D13">
+        <v>-1.25201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>-1.18935</v>
+      </c>
+      <c r="C14">
+        <v>1.95082</v>
+      </c>
+      <c r="D14">
+        <v>-0.761463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>-0.416638</v>
+      </c>
+      <c r="C15">
+        <v>1.82459</v>
+      </c>
+      <c r="D15">
+        <v>-1.40795</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>-1.34493</v>
+      </c>
+      <c r="C16">
+        <v>1.82459</v>
+      </c>
+      <c r="D16">
+        <v>-0.479654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>-0.134067</v>
+      </c>
+      <c r="C17">
+        <v>1.61984</v>
+      </c>
+      <c r="D17">
+        <v>-1.48577</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>-1.42227</v>
+      </c>
+      <c r="C18">
+        <v>1.61984</v>
+      </c>
+      <c r="D18">
+        <v>-0.197568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>-0.544921</v>
+      </c>
+      <c r="C19">
+        <v>1.15416</v>
+      </c>
+      <c r="D19">
+        <v>-0.609237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>-1.28574</v>
+      </c>
+      <c r="C20">
+        <v>2.62984</v>
+      </c>
+      <c r="D20">
+        <v>-1.3441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>